--- a/source/Contenido, web eventos.xlsx
+++ b/source/Contenido, web eventos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="6855" windowHeight="4620"/>
@@ -14,12 +14,15 @@
     <sheet name="Otros" sheetId="5" r:id="rId5"/>
     <sheet name="Menaje" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">General!$A$1:$K$43</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="82">
   <si>
     <t>Video</t>
   </si>
@@ -270,8 +273,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,16 +290,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -304,22 +356,493 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -398,6 +921,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -432,6 +956,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -607,555 +1132,810 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="16" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="F3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A8" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="39"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="70"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="74" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
+      <c r="B28" s="75"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+      <c r="B29" s="75"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
+      <c r="B30" s="75"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="2" t="s">
+      <c r="B31" s="79"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="80"/>
+      <c r="K31" s="81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="82" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="84"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="85" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="2" t="s">
+      <c r="B34" s="86"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="88"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="52" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="55"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
+      <c r="B37" s="57"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="J37" s="58"/>
+      <c r="K37" s="59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" s="61"/>
+      <c r="K38" s="62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K42" s="1" t="s">
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="J39" s="65"/>
+      <c r="K39" s="66" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K43"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1190,7 +1970,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1204,72 +1984,72 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1280,19 +2060,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1327,7 +2107,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -1346,57 +2126,57 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1407,53 +2187,53 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1464,44 +2244,44 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>

--- a/source/Contenido, web eventos.xlsx
+++ b/source/Contenido, web eventos.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Menaje" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">General!$A$1:$K$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">General!$A$1:$J$43</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="82">
   <si>
     <t>Video</t>
   </si>
@@ -1133,11 +1133,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,14 +1148,13 @@
     <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -1173,22 +1172,19 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1201,13 +1197,12 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
@@ -1224,13 +1219,12 @@
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1247,13 +1241,12 @@
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
@@ -1270,13 +1263,12 @@
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1293,13 +1285,12 @@
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1314,13 +1305,12 @@
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>80</v>
       </c>
@@ -1332,10 +1322,9 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>81</v>
       </c>
@@ -1347,11 +1336,10 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>12</v>
       </c>
@@ -1364,13 +1352,12 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="24"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>13</v>
       </c>
@@ -1385,13 +1372,12 @@
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="28"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>14</v>
       </c>
@@ -1406,13 +1392,12 @@
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>15</v>
       </c>
@@ -1427,13 +1412,12 @@
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1444,9 +1428,8 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
         <v>16</v>
       </c>
@@ -1457,17 +1440,16 @@
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="39"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>17</v>
       </c>
@@ -1480,21 +1462,20 @@
       <c r="F17" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="42"/>
+      <c r="G17" s="42" t="s">
+        <v>53</v>
+      </c>
       <c r="H17" s="42" t="s">
         <v>53</v>
       </c>
       <c r="I17" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>18</v>
       </c>
@@ -1507,19 +1488,18 @@
       <c r="F18" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="46"/>
+      <c r="G18" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="H18" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="46"/>
+      <c r="J18" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>19</v>
       </c>
@@ -1532,19 +1512,18 @@
       <c r="F19" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="46"/>
+      <c r="G19" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="H19" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="46"/>
+      <c r="J19" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>20</v>
       </c>
@@ -1557,19 +1536,18 @@
       <c r="F20" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="46"/>
+      <c r="G20" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="H20" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="46"/>
+      <c r="J20" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>21</v>
       </c>
@@ -1582,19 +1560,18 @@
       <c r="F21" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="46"/>
+      <c r="G21" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="H21" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="46"/>
+      <c r="J21" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>22</v>
       </c>
@@ -1607,19 +1584,18 @@
       <c r="F22" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="46"/>
+      <c r="G22" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="H22" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I22" s="46"/>
+      <c r="J22" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>23</v>
       </c>
@@ -1633,16 +1609,15 @@
         <v>53</v>
       </c>
       <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>44</v>
       </c>
@@ -1655,22 +1630,21 @@
       <c r="F24" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="50"/>
+      <c r="G24" s="50" t="s">
+        <v>53</v>
+      </c>
       <c r="H24" s="50" t="s">
         <v>53</v>
       </c>
       <c r="I24" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" s="51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="67" t="s">
         <v>24</v>
       </c>
@@ -1681,17 +1655,16 @@
       </c>
       <c r="E26" s="69"/>
       <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" s="70"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G26" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="70"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="71" t="s">
         <v>25</v>
       </c>
@@ -1704,21 +1677,20 @@
       <c r="F27" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="73"/>
+      <c r="G27" s="73" t="s">
+        <v>53</v>
+      </c>
       <c r="H27" s="73" t="s">
         <v>53</v>
       </c>
       <c r="I27" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="74" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="74" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="71" t="s">
         <v>26</v>
       </c>
@@ -1731,21 +1703,20 @@
       <c r="F28" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="76"/>
+      <c r="G28" s="76" t="s">
+        <v>53</v>
+      </c>
       <c r="H28" s="76" t="s">
         <v>53</v>
       </c>
       <c r="I28" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="J28" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="77" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J28" s="77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="71" t="s">
         <v>31</v>
       </c>
@@ -1756,19 +1727,18 @@
         <v>53</v>
       </c>
       <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
+      <c r="G29" s="76" t="s">
+        <v>53</v>
+      </c>
       <c r="H29" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="76"/>
-      <c r="K29" s="77" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I29" s="76"/>
+      <c r="J29" s="77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="71" t="s">
         <v>32</v>
       </c>
@@ -1779,19 +1749,18 @@
         <v>53</v>
       </c>
       <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
+      <c r="G30" s="76" t="s">
+        <v>53</v>
+      </c>
       <c r="H30" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="76"/>
+      <c r="J30" s="77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
         <v>27</v>
       </c>
@@ -1801,17 +1770,16 @@
       <c r="E31" s="80"/>
       <c r="F31" s="80"/>
       <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="80"/>
-      <c r="K31" s="81" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="80"/>
+      <c r="J31" s="81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="82" t="s">
         <v>63</v>
       </c>
@@ -1823,10 +1791,9 @@
       <c r="G33" s="83"/>
       <c r="H33" s="83"/>
       <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="84"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="84"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="85" t="s">
         <v>79</v>
       </c>
@@ -1838,11 +1805,10 @@
       <c r="G34" s="87"/>
       <c r="H34" s="87"/>
       <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="88"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="88"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="52" t="s">
         <v>40</v>
       </c>
@@ -1854,10 +1820,9 @@
       <c r="G36" s="54"/>
       <c r="H36" s="54"/>
       <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="55"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J36" s="55"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="56" t="s">
         <v>41</v>
       </c>
@@ -1867,16 +1832,15 @@
       <c r="E37" s="58"/>
       <c r="F37" s="58"/>
       <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37" s="58"/>
-      <c r="K37" s="59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H37" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="58"/>
+      <c r="J37" s="59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="56" t="s">
         <v>42</v>
       </c>
@@ -1886,16 +1850,15 @@
       <c r="E38" s="61"/>
       <c r="F38" s="61"/>
       <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="J38" s="61"/>
-      <c r="K38" s="62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="61"/>
+      <c r="J38" s="62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="63" t="s">
         <v>43</v>
       </c>
@@ -1905,17 +1868,16 @@
       <c r="E39" s="65"/>
       <c r="F39" s="65"/>
       <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39" s="65"/>
-      <c r="K39" s="66" t="s">
+      <c r="H39" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="65"/>
+      <c r="J39" s="66" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K43"/>
+  <autoFilter ref="A1:J43"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/source/Contenido, web eventos.xlsx
+++ b/source/Contenido, web eventos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="6855" windowHeight="4620"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="6855" windowHeight="4620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="82">
   <si>
     <t>Video</t>
   </si>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -1888,7 +1888,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,7 +2034,7 @@
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -2054,22 +2054,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -2081,39 +2075,37 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
